--- a/rules/CORE-000037/negative/01/data/unit-test-CG0653-negative.xlsx
+++ b/rules/CORE-000037/negative/01/data/unit-test-CG0653-negative.xlsx
@@ -49,7 +49,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <b/>
     </font>
   </fonts>
   <fills count="2">

--- a/rules/CORE-000037/negative/01/data/unit-test-CG0653-negative.xlsx
+++ b/rules/CORE-000037/negative/01/data/unit-test-CG0653-negative.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sheet/Domain</t>
+          <t>Sheet</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
